--- a/price_gabinete.xlsx
+++ b/price_gabinete.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,6 +502,48 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>12/01/2025 19:35</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>539.9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>635.1799999999999</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.terabyteshop.com.br/produto/31959/gabinete-gamer-redragon-wideload-extreme-mid-tower-rgb-vidro-curvado-temperado-atx-black-sem-fonte-sem-fan-ca-605b</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>12/01/2025 19:35</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>539.9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>635.1799999999999</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.terabyteshop.com.br/produto/31959/gabinete-gamer-redragon-wideload-extreme-mid-tower-rgb-vidro-curvado-temperado-atx-black-sem-fonte-sem-fan-ca-605b</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/price_gabinete.xlsx
+++ b/price_gabinete.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10/01/2025 20:57</t>
+          <t>12/01/2025 19:43</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -476,69 +476,6 @@
         <v>635.1799999999999</v>
       </c>
       <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.terabyteshop.com.br/produto/31959/gabinete-gamer-redragon-wideload-extreme-mid-tower-rgb-vidro-curvado-temperado-atx-black-sem-fonte-sem-fan-ca-605b</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>10/01/2025 20:57</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>539.9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>635.1799999999999</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.terabyteshop.com.br/produto/31959/gabinete-gamer-redragon-wideload-extreme-mid-tower-rgb-vidro-curvado-temperado-atx-black-sem-fonte-sem-fan-ca-605b</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>12/01/2025 19:35</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>539.9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>635.1799999999999</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.terabyteshop.com.br/produto/31959/gabinete-gamer-redragon-wideload-extreme-mid-tower-rgb-vidro-curvado-temperado-atx-black-sem-fonte-sem-fan-ca-605b</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>12/01/2025 19:35</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>539.9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>635.1799999999999</v>
-      </c>
-      <c r="E5" t="inlineStr">
         <is>
           <t>https://www.terabyteshop.com.br/produto/31959/gabinete-gamer-redragon-wideload-extreme-mid-tower-rgb-vidro-curvado-temperado-atx-black-sem-fonte-sem-fan-ca-605b</t>
         </is>
